--- a/server/output/American School of Alexandria_Users.xlsx
+++ b/server/output/American School of Alexandria_Users.xlsx
@@ -22,13 +22,13 @@
     <t>emily.johnson@example.com</t>
   </si>
   <si>
-    <t>8Ofw.CTmW^?Z</t>
+    <t>V)%i5UaPleh%</t>
   </si>
   <si>
     <t>chris.davis@example.com</t>
   </si>
   <si>
-    <t>:%2FKo9DbZp}</t>
+    <t>}1Mnz0mYNj^C</t>
   </si>
 </sst>
 </file>

--- a/server/output/American School of Alexandria_Users.xlsx
+++ b/server/output/American School of Alexandria_Users.xlsx
@@ -11,24 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Email</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>emily.johnson@example.com</t>
-  </si>
-  <si>
-    <t>V)%i5UaPleh%</t>
-  </si>
-  <si>
-    <t>chris.davis@example.com</t>
-  </si>
-  <si>
-    <t>}1Mnz0mYNj^C</t>
   </si>
 </sst>
 </file>
@@ -405,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -420,22 +408,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/server/output/American School of Alexandria_Users.xlsx
+++ b/server/output/American School of Alexandria_Users.xlsx
@@ -11,12 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Email</t>
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>john.smith@example.com</t>
+  </si>
+  <si>
+    <t>u16EE1k8MA@I</t>
+  </si>
+  <si>
+    <t>emily.johnson@example.com</t>
+  </si>
+  <si>
+    <t>Kt&lt;1kOUH@Xu|</t>
+  </si>
+  <si>
+    <t>chris.davis@example.com</t>
+  </si>
+  <si>
+    <t>,:x5_X%vXj%w</t>
   </si>
 </sst>
 </file>
@@ -393,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -408,6 +426,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/server/output/American School of Alexandria_Users.xlsx
+++ b/server/output/American School of Alexandria_Users.xlsx
@@ -11,30 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Email</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>john.smith@example.com</t>
-  </si>
-  <si>
-    <t>u16EE1k8MA@I</t>
-  </si>
-  <si>
-    <t>emily.johnson@example.com</t>
-  </si>
-  <si>
-    <t>Kt&lt;1kOUH@Xu|</t>
-  </si>
-  <si>
-    <t>chris.davis@example.com</t>
-  </si>
-  <si>
-    <t>,:x5_X%vXj%w</t>
   </si>
 </sst>
 </file>
@@ -411,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -426,30 +408,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
